--- a/src/main/resources/FetchData/CRM_EpayPropertyConfig_Data.xlsx
+++ b/src/main/resources/FetchData/CRM_EpayPropertyConfig_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Bundle_Automation_Projects\src\main\resources\FetchData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76C2060-E3D4-447B-B120-EE9F46A75C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A16BDD0-F32A-4B3A-BA7E-4D88A5F3CBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>ApplicationName</t>
   </si>
@@ -154,21 +154,6 @@
   </si>
   <si>
     <t>key05</t>
-  </si>
-  <si>
-    <t>TestNameApp0065</t>
-  </si>
-  <si>
-    <t>TestNameApp8905</t>
-  </si>
-  <si>
-    <t>TestNameApp0785</t>
-  </si>
-  <si>
-    <t>key0d</t>
-  </si>
-  <si>
-    <t>key05s</t>
   </si>
 </sst>
 </file>
@@ -487,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,111 +559,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3">
-        <v>5505</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4">
-        <v>5506</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5">
-        <v>5507</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -686,9 +566,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A17DD1A-1469-4ECE-B58E-7BD1141D4A05}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -756,35 +636,6 @@
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3">
-        <v>755</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/main/resources/FetchData/CRM_EpayPropertyConfig_Data.xlsx
+++ b/src/main/resources/FetchData/CRM_EpayPropertyConfig_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Bundle_Automation_Projects\src\main\resources\FetchData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A16BDD0-F32A-4B3A-BA7E-4D88A5F3CBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9332F70C-4D44-4165-B0E6-D57D013365E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t>ApplicationName</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>key05</t>
+  </si>
+  <si>
+    <t>NewApp01</t>
+  </si>
+  <si>
+    <t>NewApp02</t>
+  </si>
+  <si>
+    <t>key01</t>
+  </si>
+  <si>
+    <t>key02</t>
   </si>
 </sst>
 </file>
@@ -472,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,6 +568,76 @@
         <v>28</v>
       </c>
       <c r="K2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>4505</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>4505</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/main/resources/FetchData/CRM_EpayPropertyConfig_Data.xlsx
+++ b/src/main/resources/FetchData/CRM_EpayPropertyConfig_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Bundle_Automation_Projects\src\main\resources\FetchData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9332F70C-4D44-4165-B0E6-D57D013365E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247789E0-0251-460B-B0E4-3AB45982D35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/FetchData/CRM_EpayPropertyConfig_Data.xlsx
+++ b/src/main/resources/FetchData/CRM_EpayPropertyConfig_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Bundle_Automation_Projects\src\main\resources\FetchData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247789E0-0251-460B-B0E4-3AB45982D35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46452ABD-CF61-4EF3-97A2-08442C931288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>ApplicationName</t>
   </si>
@@ -154,18 +154,6 @@
   </si>
   <si>
     <t>key05</t>
-  </si>
-  <si>
-    <t>NewApp01</t>
-  </si>
-  <si>
-    <t>NewApp02</t>
-  </si>
-  <si>
-    <t>key01</t>
-  </si>
-  <si>
-    <t>key02</t>
   </si>
 </sst>
 </file>
@@ -484,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,76 +556,6 @@
         <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3">
-        <v>4505</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <v>4505</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/main/resources/FetchData/CRM_EpayPropertyConfig_Data.xlsx
+++ b/src/main/resources/FetchData/CRM_EpayPropertyConfig_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Bundle_Automation_Projects\src\main\resources\FetchData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46452ABD-CF61-4EF3-97A2-08442C931288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727DE24E-2F0F-4222-A2D3-5F87C8355E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>ApplicationName</t>
   </si>
@@ -150,20 +150,35 @@
     <t>index741</t>
   </si>
   <si>
-    <t>TestNameApp0005</t>
-  </si>
-  <si>
-    <t>key05</t>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>TestNameApp1001</t>
+  </si>
+  <si>
+    <t>TestNameApp1002</t>
+  </si>
+  <si>
+    <t>key07</t>
+  </si>
+  <si>
+    <t>key08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -472,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,10 +550,10 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2">
         <v>4505</v>
@@ -559,7 +574,43 @@
         <v>29</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>4505</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -568,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A17DD1A-1469-4ECE-B58E-7BD1141D4A05}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,7 +663,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -646,58 +697,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387B2777-62E2-45F9-8F96-582CB61F77DA}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="59.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -711,35 +783,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A6DB13-6413-4CDA-8436-CC17B1E76CD1}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="46.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -774,19 +844,19 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>

--- a/src/main/resources/FetchData/CRM_EpayPropertyConfig_Data.xlsx
+++ b/src/main/resources/FetchData/CRM_EpayPropertyConfig_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Bundle_Automation_Projects\src\main\resources\FetchData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727DE24E-2F0F-4222-A2D3-5F87C8355E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C14EA2D-75CA-4158-8D4A-4E01DEACC430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A6DB13-6413-4CDA-8436-CC17B1E76CD1}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/FetchData/CRM_EpayPropertyConfig_Data.xlsx
+++ b/src/main/resources/FetchData/CRM_EpayPropertyConfig_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Bundle_Automation_Projects\src\main\resources\FetchData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C14EA2D-75CA-4158-8D4A-4E01DEACC430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EC07F7-677D-4AB5-8BA6-4D1AFF441E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>ApplicationName</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Enviornment</t>
   </si>
   <si>
-    <t>PhonePe</t>
-  </si>
-  <si>
     <t>ParentMenu</t>
   </si>
   <si>
@@ -150,19 +147,13 @@
     <t>index741</t>
   </si>
   <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>TestNameApp1001</t>
-  </si>
-  <si>
-    <t>TestNameApp1002</t>
-  </si>
-  <si>
-    <t>key07</t>
-  </si>
-  <si>
-    <t>key08</t>
+    <t>IDFC</t>
+  </si>
+  <si>
+    <t>key0712</t>
+  </si>
+  <si>
+    <t>GooglePay</t>
   </si>
 </sst>
 </file>
@@ -487,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,10 +500,10 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -533,27 +524,27 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
         <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2">
         <v>4505</v>
@@ -568,45 +559,10 @@
         <v>7</v>
       </c>
       <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
         <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3">
-        <v>4505</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -637,10 +593,10 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -663,19 +619,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>755</v>
@@ -720,10 +676,10 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -746,28 +702,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
         <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -781,10 +737,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A6DB13-6413-4CDA-8436-CC17B1E76CD1}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,10 +756,10 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -836,21 +792,21 @@
         <v>13</v>
       </c>
       <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
         <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -874,19 +830,66 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
         <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/FetchData/CRM_EpayPropertyConfig_Data.xlsx
+++ b/src/main/resources/FetchData/CRM_EpayPropertyConfig_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Bundle_Automation_Projects\src\main\resources\FetchData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eeft-my.sharepoint.com/personal/sdhara_euronetworldwide_com/Documents/Documents/New_Auto_WorkSpace/Framework_BundleUpProjects-main/src/main/resources/FetchData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EC07F7-677D-4AB5-8BA6-4D1AFF441E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{33EC07F7-677D-4AB5-8BA6-4D1AFF441E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00A15908-8E12-45AD-B7B5-F348BD5BF25B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Data" sheetId="1" r:id="rId1"/>
@@ -481,21 +481,21 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -530,7 +530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -545,9 +545,6 @@
       </c>
       <c r="E2" t="s">
         <v>40</v>
-      </c>
-      <c r="F2">
-        <v>4505</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -568,6 +565,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Internal content</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -579,16 +579,16 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -617,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -648,6 +648,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Internal content</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -659,19 +662,19 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="29.08984375" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" customWidth="1"/>
-    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.90625" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" customWidth="1"/>
+    <col min="7" max="7" width="24.08984375" customWidth="1"/>
+    <col min="8" max="8" width="59.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -700,7 +703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -732,6 +735,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Internal content</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -743,15 +749,15 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="35.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="46.77734375" customWidth="1"/>
+    <col min="3" max="3" width="35.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" customWidth="1"/>
+    <col min="9" max="9" width="46.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -798,7 +804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -845,7 +851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -894,5 +900,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Internal content</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>